--- a/Results/Results_S6.xlsx
+++ b/Results/Results_S6.xlsx
@@ -404,10 +404,10 @@
         <v>2023</v>
       </c>
       <c r="B2">
-        <v>21.13602999999477</v>
+        <v>21.13602999999475</v>
       </c>
       <c r="C2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -416,13 +416,13 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2403423603465949</v>
+        <v>0.2392189636994589</v>
       </c>
       <c r="G2">
-        <v>3691.128881771857</v>
+        <v>3696.686773354967</v>
       </c>
       <c r="H2">
-        <v>0.5726169602034814</v>
+        <v>0.5717560425281184</v>
       </c>
     </row>
     <row r="3">
@@ -430,10 +430,10 @@
         <v>2024</v>
       </c>
       <c r="B3">
-        <v>21.85007670999481</v>
+        <v>21.85007670999479</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -442,13 +442,13 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2799345775439606</v>
+        <v>0.2821717707289705</v>
       </c>
       <c r="G3">
-        <v>3752.852069844648</v>
+        <v>3777.306414268884</v>
       </c>
       <c r="H3">
-        <v>0.5822258992185456</v>
+        <v>0.5784565590828293</v>
       </c>
     </row>
     <row r="4">
@@ -456,7 +456,7 @@
         <v>2025</v>
       </c>
       <c r="B4">
-        <v>22.56042067999478</v>
+        <v>22.56042067999476</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -468,13 +468,13 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3010489120841895</v>
+        <v>0.3027178665982671</v>
       </c>
       <c r="G4">
-        <v>3911.219010133889</v>
+        <v>3918.703817962509</v>
       </c>
       <c r="H4">
-        <v>0.5768130248278398</v>
+        <v>0.575711299654303</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         <v>2026</v>
       </c>
       <c r="B5">
-        <v>23.22582387999481</v>
+        <v>23.22582387999479</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -494,13 +494,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3147130163798988</v>
+        <v>0.3158736445565552</v>
       </c>
       <c r="G5">
-        <v>4065.188665402678</v>
+        <v>4077.638135965924</v>
       </c>
       <c r="H5">
-        <v>0.5713344641950135</v>
+        <v>0.569590118238704</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +508,7 @@
         <v>2027</v>
       </c>
       <c r="B6">
-        <v>23.9577186899948</v>
+        <v>23.95771868999476</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -520,13 +520,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3209115679944619</v>
+        <v>0.3200592976877066</v>
       </c>
       <c r="G6">
-        <v>4239.81042648818</v>
+        <v>4259.609038422821</v>
       </c>
       <c r="H6">
-        <v>0.5650657996480019</v>
+        <v>0.562439380560274</v>
       </c>
     </row>
     <row r="7">
@@ -534,7 +534,7 @@
         <v>2028</v>
       </c>
       <c r="B7">
-        <v>24.76975238999476</v>
+        <v>24.76975238999474</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -543,16 +543,16 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>14.662803998</v>
+        <v>1.218841982306258</v>
       </c>
       <c r="F7">
-        <v>0.3640982589035757</v>
+        <v>0.3659390839324042</v>
       </c>
       <c r="G7">
-        <v>4444.511063666612</v>
+        <v>4461.549043111811</v>
       </c>
       <c r="H7">
-        <v>0.5573110750580589</v>
+        <v>0.5551827885482236</v>
       </c>
     </row>
     <row r="8">
@@ -560,25 +560,25 @@
         <v>2029</v>
       </c>
       <c r="B8">
-        <v>25.66272002999476</v>
+        <v>25.66272002999472</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>26.37999551799999</v>
+        <v>14.662803998</v>
       </c>
       <c r="F8">
-        <v>0.3659204992982207</v>
+        <v>0.3661127750801957</v>
       </c>
       <c r="G8">
-        <v>4597.882309363968</v>
+        <v>4599.804730061753</v>
       </c>
       <c r="H8">
-        <v>0.558142168574661</v>
+        <v>0.5579089012687328</v>
       </c>
     </row>
     <row r="9">
@@ -586,7 +586,7 @@
         <v>2030</v>
       </c>
       <c r="B9">
-        <v>26.74449718999477</v>
+        <v>26.74449718999474</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>32.20124931477594</v>
       </c>
       <c r="F9">
-        <v>0.3857531507716162</v>
+        <v>0.386180324527109</v>
       </c>
       <c r="G9">
-        <v>4680.601738073678</v>
+        <v>4677.348646816087</v>
       </c>
       <c r="H9">
-        <v>0.5713901478189336</v>
+        <v>0.5717875490893748</v>
       </c>
     </row>
     <row r="10">
@@ -612,25 +612,25 @@
         <v>2031</v>
       </c>
       <c r="B10">
-        <v>27.10424367999477</v>
+        <v>27.10424367999474</v>
       </c>
       <c r="C10">
         <v>5</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>87.65621801987646</v>
+        <v>82.45031263246121</v>
       </c>
       <c r="F10">
-        <v>0.3857167933700821</v>
+        <v>0.3874726101052314</v>
       </c>
       <c r="G10">
-        <v>4756.793442031066</v>
+        <v>4755.59162283329</v>
       </c>
       <c r="H10">
-        <v>0.569800728375158</v>
+        <v>0.5699447267477217</v>
       </c>
     </row>
     <row r="11">
@@ -638,25 +638,25 @@
         <v>2032</v>
       </c>
       <c r="B11">
-        <v>27.46370780999476</v>
+        <v>27.46370780999474</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11">
-        <v>163.7377903445504</v>
+        <v>115.7294124388981</v>
       </c>
       <c r="F11">
-        <v>0.3785520090130713</v>
+        <v>0.3809946954220956</v>
       </c>
       <c r="G11">
-        <v>4906.828916489151</v>
+        <v>4877.09837581188</v>
       </c>
       <c r="H11">
-        <v>0.5597037980620101</v>
+        <v>0.5631157236073369</v>
       </c>
     </row>
     <row r="12">
@@ -664,25 +664,25 @@
         <v>2033</v>
       </c>
       <c r="B12">
-        <v>27.83064783999477</v>
+        <v>27.83064783999474</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>268.6232223520199</v>
+        <v>275.9049874085127</v>
       </c>
       <c r="F12">
-        <v>0.3356840407518499</v>
+        <v>0.334889149948146</v>
       </c>
       <c r="G12">
-        <v>5103.24432548701</v>
+        <v>5063.836880365056</v>
       </c>
       <c r="H12">
-        <v>0.5453520557697157</v>
+        <v>0.5495960572487559</v>
       </c>
     </row>
     <row r="13">
@@ -690,25 +690,25 @@
         <v>2034</v>
       </c>
       <c r="B13">
-        <v>28.18640283999477</v>
+        <v>28.18640283999475</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13">
-        <v>263.137476712598</v>
+        <v>272.7165734417719</v>
       </c>
       <c r="F13">
-        <v>0.3221895530859015</v>
+        <v>0.3236324553593016</v>
       </c>
       <c r="G13">
-        <v>5250.993048877153</v>
+        <v>5237.173940461217</v>
       </c>
       <c r="H13">
-        <v>0.5367823300779653</v>
+        <v>0.5381987148113031</v>
       </c>
     </row>
     <row r="14">
@@ -716,7 +716,7 @@
         <v>2035</v>
       </c>
       <c r="B14">
-        <v>28.47498797168191</v>
+        <v>28.47498796999474</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -725,16 +725,16 @@
         <v>32</v>
       </c>
       <c r="E14">
-        <v>257.5316117539137</v>
+        <v>255.4813828723899</v>
       </c>
       <c r="F14">
-        <v>0.3196644625654692</v>
+        <v>0.3237395415563139</v>
       </c>
       <c r="G14">
-        <v>5344.127263782676</v>
+        <v>5340.320279327852</v>
       </c>
       <c r="H14">
-        <v>0.5328276548475525</v>
+        <v>0.5332074946931589</v>
       </c>
     </row>
     <row r="15">
@@ -742,25 +742,25 @@
         <v>2036</v>
       </c>
       <c r="B15">
-        <v>28.52692241999476</v>
+        <v>28.52692242179329</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>25</v>
       </c>
       <c r="E15">
-        <v>237.7573697378582</v>
+        <v>277.8570413816718</v>
       </c>
       <c r="F15">
-        <v>0.3058851666185092</v>
+        <v>0.3106979675859447</v>
       </c>
       <c r="G15">
-        <v>5404.943537171546</v>
+        <v>5416.090169571141</v>
       </c>
       <c r="H15">
-        <v>0.5277931623856175</v>
+        <v>0.5267069330208756</v>
       </c>
     </row>
     <row r="16">
@@ -768,25 +768,25 @@
         <v>2037</v>
       </c>
       <c r="B16">
-        <v>28.5671435189547</v>
+        <v>28.56714351999474</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>219.0588201130954</v>
+        <v>210.5338510351209</v>
       </c>
       <c r="F16">
-        <v>0.2807494859197611</v>
+        <v>0.2854469826585077</v>
       </c>
       <c r="G16">
-        <v>5502.715279628871</v>
+        <v>5507.814321845025</v>
       </c>
       <c r="H16">
-        <v>0.5191463135428916</v>
+        <v>0.5186656966029535</v>
       </c>
     </row>
     <row r="17">
@@ -794,25 +794,25 @@
         <v>2038</v>
       </c>
       <c r="B17">
-        <v>28.5977156689781</v>
+        <v>28.59771566999473</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>164.6323343851613</v>
+        <v>179.6003763493269</v>
       </c>
       <c r="F17">
-        <v>0.2701941674656044</v>
+        <v>0.2752346970721594</v>
       </c>
       <c r="G17">
-        <v>5551.818064815443</v>
+        <v>5565.924514290129</v>
       </c>
       <c r="H17">
-        <v>0.5151054183532358</v>
+        <v>0.5137999194306724</v>
       </c>
     </row>
     <row r="18">
@@ -820,25 +820,25 @@
         <v>2039</v>
       </c>
       <c r="B18">
-        <v>28.59428546004402</v>
+        <v>28.59428545999473</v>
       </c>
       <c r="C18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>170.294178766288</v>
+        <v>169.901567316808</v>
       </c>
       <c r="F18">
-        <v>0.270012438666235</v>
+        <v>0.2753960011405997</v>
       </c>
       <c r="G18">
-        <v>5670.222738412943</v>
+        <v>5688.476045299411</v>
       </c>
       <c r="H18">
-        <v>0.5042885752323615</v>
+        <v>0.5026704029741533</v>
       </c>
     </row>
     <row r="19">
@@ -846,25 +846,25 @@
         <v>2040</v>
       </c>
       <c r="B19">
-        <v>28.57422670004464</v>
+        <v>28.57422669999474</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E19">
-        <v>133.0496739918032</v>
+        <v>139.7670312623993</v>
       </c>
       <c r="F19">
-        <v>0.272302577071582</v>
+        <v>0.277828563280043</v>
       </c>
       <c r="G19">
-        <v>5731.129709022779</v>
+        <v>5750.192130385776</v>
       </c>
       <c r="H19">
-        <v>0.4985793054911831</v>
+        <v>0.4969264687522313</v>
       </c>
     </row>
     <row r="20">
@@ -872,25 +872,25 @@
         <v>2041</v>
       </c>
       <c r="B20">
-        <v>28.37144268036795</v>
+        <v>28.3714426800693</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <v>76.16320139019723</v>
+        <v>92.03246384220219</v>
       </c>
       <c r="F20">
-        <v>0.270402757697416</v>
+        <v>0.2769517674928316</v>
       </c>
       <c r="G20">
-        <v>5711.234489354075</v>
+        <v>5740.545051165566</v>
       </c>
       <c r="H20">
-        <v>0.4967655019812833</v>
+        <v>0.4942290745424729</v>
       </c>
     </row>
     <row r="21">
@@ -898,25 +898,25 @@
         <v>2042</v>
       </c>
       <c r="B21">
-        <v>28.15722030976116</v>
+        <v>28.15722030999473</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>29.29177081813797</v>
+        <v>46.58455201596804</v>
       </c>
       <c r="F21">
-        <v>0.249479498996443</v>
+        <v>0.2579171075090837</v>
       </c>
       <c r="G21">
-        <v>5685.035531302557</v>
+        <v>5727.843918854681</v>
       </c>
       <c r="H21">
-        <v>0.4952866196653264</v>
+        <v>0.4915849787266017</v>
       </c>
     </row>
     <row r="22">
@@ -924,25 +924,25 @@
         <v>2043</v>
       </c>
       <c r="B22">
-        <v>27.92259855004274</v>
+        <v>27.92259855054463</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>29.73883315102171</v>
+        <v>28.5671627569966</v>
       </c>
       <c r="F22">
-        <v>0.2383869692309339</v>
+        <v>0.2481569928825704</v>
       </c>
       <c r="G22">
-        <v>5684.571003247991</v>
+        <v>5730.626338624557</v>
       </c>
       <c r="H22">
-        <v>0.4911997498859388</v>
+        <v>0.4872521239492733</v>
       </c>
     </row>
     <row r="23">
@@ -950,25 +950,25 @@
         <v>2044</v>
       </c>
       <c r="B23">
-        <v>27.6514809500414</v>
+        <v>27.65148095054423</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23">
-        <v>7.744158001515015</v>
+        <v>8.714427069735013</v>
       </c>
       <c r="F23">
-        <v>0.2377740307020384</v>
+        <v>0.2475440543536748</v>
       </c>
       <c r="G23">
-        <v>5630.206606627428</v>
+        <v>5673.901022849678</v>
       </c>
       <c r="H23">
-        <v>0.4911272868297992</v>
+        <v>0.4873451411857104</v>
       </c>
     </row>
     <row r="24">
@@ -976,25 +976,25 @@
         <v>2045</v>
       </c>
       <c r="B24">
-        <v>27.35481787007393</v>
+        <v>27.35481787054649</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
       <c r="E24">
-        <v>4.085773589937555</v>
+        <v>2.457059041737089</v>
       </c>
       <c r="F24">
-        <v>0.240373411583503</v>
+        <v>0.247545411270181</v>
       </c>
       <c r="G24">
-        <v>5577.953251689089</v>
+        <v>5620.195477581339</v>
       </c>
       <c r="H24">
-        <v>0.4904095935510123</v>
+        <v>0.4867236020466442</v>
       </c>
     </row>
     <row r="25">
@@ -1002,25 +1002,25 @@
         <v>2046</v>
       </c>
       <c r="B25">
-        <v>26.97910179016613</v>
+        <v>26.97910179054833</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
       <c r="E25">
-        <v>54.1797167729968</v>
+        <v>53.35948924898733</v>
       </c>
       <c r="F25">
-        <v>0.2367959548900489</v>
+        <v>0.2439679545767239</v>
       </c>
       <c r="G25">
-        <v>5480.328017083887</v>
+        <v>5520.897437838777</v>
       </c>
       <c r="H25">
-        <v>0.4922899086708656</v>
+        <v>0.4886723960065019</v>
       </c>
     </row>
     <row r="26">
@@ -1028,25 +1028,25 @@
         <v>2047</v>
       </c>
       <c r="B26">
-        <v>26.5909387702834</v>
+        <v>26.59093877067457</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E26">
-        <v>127.2153974045774</v>
+        <v>123.899344982822</v>
       </c>
       <c r="F26">
-        <v>0.2334395874987529</v>
+        <v>0.2406115871854294</v>
       </c>
       <c r="G26">
-        <v>5416.498345481151</v>
+        <v>5416.471797912552</v>
       </c>
       <c r="H26">
-        <v>0.4909248941701894</v>
+        <v>0.4909273003308615</v>
       </c>
     </row>
     <row r="27">
@@ -1054,25 +1054,25 @@
         <v>2048</v>
       </c>
       <c r="B27">
-        <v>26.22162253024842</v>
+        <v>26.22162253097315</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>210.8432834205235</v>
+        <v>218.6215476182707</v>
       </c>
       <c r="F27">
-        <v>0.2283890481718222</v>
+        <v>0.2352180149906909</v>
       </c>
       <c r="G27">
-        <v>5397.919962946242</v>
+        <v>5396.19152931093</v>
       </c>
       <c r="H27">
-        <v>0.4857727181997042</v>
+        <v>0.4859283142294531</v>
       </c>
     </row>
     <row r="28">
@@ -1080,25 +1080,25 @@
         <v>2049</v>
       </c>
       <c r="B28">
-        <v>25.866595049761</v>
+        <v>25.86659505066243</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E28">
-        <v>294.1580394004691</v>
+        <v>298.2008961105664</v>
       </c>
       <c r="F28">
-        <v>0.219447747102951</v>
+        <v>0.2246198124795308</v>
       </c>
       <c r="G28">
-        <v>5365.946326965059</v>
+        <v>5353.65965256259</v>
       </c>
       <c r="H28">
-        <v>0.482050946349867</v>
+        <v>0.4831572555846185</v>
       </c>
     </row>
     <row r="29">
@@ -1106,25 +1106,25 @@
         <v>2050</v>
       </c>
       <c r="B29">
-        <v>25.50867430025096</v>
+        <v>25.5086743001779</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E29">
-        <v>286.2708077378903</v>
+        <v>270.5505140766452</v>
       </c>
       <c r="F29">
-        <v>0.2204290244092844</v>
+        <v>0.2252550489982136</v>
       </c>
       <c r="G29">
-        <v>5383.858321240104</v>
+        <v>5375.70732750707</v>
       </c>
       <c r="H29">
-        <v>0.4737991376856173</v>
+        <v>0.474517542457195</v>
       </c>
     </row>
   </sheetData>
